--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98348490-6BF4-463B-AF5C-D6C8665B96E9}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EF9FF6-5FC4-4FAE-99C4-FA45AF23FDF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
     <sheet name="User Registration_TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Login_TestCases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -459,9 +459,6 @@
     <t>Verify user is able to complete registration by entering a valid OTP.</t>
   </si>
   <si>
-    <t>OTP Sent</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Enter incorrect OTP |
 Valid phone number |
 OTP sent successfully
@@ -502,6 +499,201 @@
   </si>
   <si>
     <t>OTP expired message displayed</t>
+  </si>
+  <si>
+    <t>1. Click Resend OTP |
+Phone number |
+New OTP sent successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New OTP Sent Successfully </t>
+  </si>
+  <si>
+    <t>TC_LOGIN_01</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-01</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-02</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-03</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-04</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-05</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-06</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-07</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-08</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-09</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-10</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-11</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-12</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_01</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_02</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_03</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_04</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_05</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_06</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_07</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_08</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_09</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_10</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_11</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_12</t>
+  </si>
+  <si>
+    <t>Verify login with valid email and valid password</t>
+  </si>
+  <si>
+    <t>Verify login with valid email and invalid password</t>
+  </si>
+  <si>
+    <t>Verify login with invalid email and valid password</t>
+  </si>
+  <si>
+    <t>Verify login with invalid email and invalid password</t>
+  </si>
+  <si>
+    <t>Verify login with empty email and password fields</t>
+  </si>
+  <si>
+    <t>Verify error message for incorrect login credentials</t>
+  </si>
+  <si>
+    <t>Verify password field is masked</t>
+  </si>
+  <si>
+    <t>Verify login button functionality</t>
+  </si>
+  <si>
+    <t>Verify “Forgot Password” link functionality</t>
+  </si>
+  <si>
+    <t>Verify user is redirected to login page when accessing protected pages</t>
+  </si>
+  <si>
+    <t>Verify user can logout successfully</t>
+  </si>
+  <si>
+    <t>Verify session timeout after inactivity</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_02</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_03</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_04</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_05</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_06</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_07</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_08</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_09</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_10</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_11</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_12</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>User account exists with valid email and password</t>
+  </si>
+  <si>
+    <t>1.Enter valid email.
+2.Enter valid passowrd.
+3.Click on login</t>
+  </si>
+  <si>
+    <t>1.Enter invalid email.
+2.Enter invalid passowrd.
+3.Click on login</t>
+  </si>
+  <si>
+    <t>1.Enter valid email.
+2.Enter invalid passowrd.
+3.Click on login</t>
+  </si>
+  <si>
+    <t>1.Enter invalid email.
+2.Enter valid passowrd.
+3.Click on login</t>
+  </si>
+  <si>
+    <t>1.Blank email
+2.Blank Password
+3.Click on login</t>
+  </si>
+  <si>
+    <t>Login page is open</t>
+  </si>
+  <si>
+    <t>1.Enter invalid email
+2.Enter valid password
+3.click login</t>
+  </si>
+  <si>
+    <t>1.Enter Email.
+2.Enter Password</t>
   </si>
 </sst>
 </file>
@@ -572,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -591,6 +783,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -629,11 +824,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1228,98 +1429,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="36" style="8" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="36" style="9" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="14" customWidth="1"/>
     <col min="8" max="8" width="40.140625" customWidth="1"/>
     <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1327,19 +1528,19 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1361,155 +1562,155 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1517,19 +1718,19 @@
       <c r="A8" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>81</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1555,19 +1756,19 @@
       <c r="A9" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1584,25 +1785,25 @@
       <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>1234</v>
       </c>
       <c r="I10" t="s">
@@ -1613,19 +1814,19 @@
       <c r="A11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1636,80 +1837,95 @@
       <c r="A12" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="22" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="F14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="H14" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E15" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="F15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>139</v>
+      <c r="I15" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1724,13 +1940,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G31" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -1757,17 +1986,17 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="E9" s="6"/>
       <c r="F9" s="2"/>
     </row>
@@ -1813,59 +2042,341 @@
       <c r="E16" s="6"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="E17" s="6"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="E18" s="6"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="2"/>
       <c r="E19" s="6"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="2"/>
+    <row r="21" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="995" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586D4C42-FF9F-4D1B-A212-ECD2197B64E1}"/>
+  <xr:revisionPtr revIDLastSave="1180" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158CAE17-602C-4D65-9C73-A4C5AEE15989}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
     <sheet name="User Registration_TestCases" sheetId="2" r:id="rId2"/>
     <sheet name="Login&amp;Logout_TestCases" sheetId="3" r:id="rId3"/>
     <sheet name="Product_Details_Test_Cases" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Product_Search_Test_Cases" sheetId="5" r:id="rId5"/>
+    <sheet name="Add_to_cart_TestCases" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="377">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -864,15 +865,6 @@
     <t>Phone number Registered</t>
   </si>
   <si>
-    <t>User is on Product Details Page |</t>
-  </si>
-  <si>
-    <t>Product |</t>
-  </si>
-  <si>
-    <t>| | |</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC_PDP_01 </t>
   </si>
   <si>
@@ -904,18 +896,6 @@
  and basic details are displayed  when opened product details page"</t>
   </si>
   <si>
-    <t>Verify product images are displayed |</t>
-  </si>
-  <si>
-    <t>1. View product images |</t>
-  </si>
-  <si>
-    <t>Product images are displayed correctly |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_PDP_02 | Product Details | </t>
-  </si>
-  <si>
     <t xml:space="preserve">FR_PDP_02 </t>
   </si>
   <si>
@@ -1136,6 +1116,178 @@
   </si>
   <si>
     <t>"Product specifications are displayed "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SEARCH_01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR_SEARCH_01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_SEARCH_01 </t>
+  </si>
+  <si>
+    <t>TC_SEARCH_02</t>
+  </si>
+  <si>
+    <t>TC_SEARCH_03</t>
+  </si>
+  <si>
+    <t>TC_SEARCH_04</t>
+  </si>
+  <si>
+    <t>TC_SEARCH_05</t>
+  </si>
+  <si>
+    <t>TC_SEARCH_06</t>
+  </si>
+  <si>
+    <t>TC_SEARCH_07</t>
+  </si>
+  <si>
+    <t>Verify search box accepts user input |</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Application home page is open</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Click on search box
+2.Enter serach Keyword</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Serach text is accpeted"
+</t>
+  </si>
+  <si>
+    <t>"Keyword accepeted in
+search"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR_SEARCH_02 </t>
+  </si>
+  <si>
+    <t>FR_SEARCH_03</t>
+  </si>
+  <si>
+    <t>FR_SEARCH_04</t>
+  </si>
+  <si>
+    <t>FR_SEARCH_05</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_02</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_03</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_04</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify auto-suggest dropdown
+ displays matching products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter search 
+keyword </t>
+  </si>
+  <si>
+    <t>"Dropdown shows releveant product suggestion "</t>
+  </si>
+  <si>
+    <t>"Relevant product is 
+shown in dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropdown visible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on a product 
+from dropdown </t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Selected product is highlighted
+</t>
+  </si>
+  <si>
+    <t>"Able to select auto suggested from dropdwn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can select product from 
+auto-suggest dropdown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify dropdown suggestions  
+match entered keyword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Type partial product name </t>
+  </si>
+  <si>
+    <t>Mob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Dropdown displays products related"
+ to keyword </t>
+  </si>
+  <si>
+    <t>"Relevant product is 
+shown in dropdown and matched to keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify redirection to correct Product Details Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product selected from dropdown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on product name 
+</t>
+  </si>
+  <si>
+    <t>"User redirected to selected product’s details page"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify no-result message for 
+unmatched search </t>
+  </si>
+  <si>
+    <t>1. Enter random keyword |</t>
+  </si>
+  <si>
+    <t>"No results message
+ displayed"</t>
+  </si>
+  <si>
+    <t>Verify dropdown selection using keyboard |</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Use arrow key
+2.Press enter  </t>
+  </si>
+  <si>
+    <t>Keyboar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Selected product opens correct PDP" </t>
+  </si>
+  <si>
+    <t>"Selected product opens correct PDP"</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1287,6 +1439,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2983,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0A0B2-B5F3-4A49-A089-B3D37B5BF24D}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,36 +3198,36 @@
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="H2" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
@@ -3081,36 +3236,36 @@
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K3" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -3119,36 +3274,36 @@
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="K4" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -3157,36 +3312,36 @@
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K5" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="16" t="s">
@@ -3195,36 +3350,36 @@
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K6" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="16" t="s">
@@ -3233,74 +3388,74 @@
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>313</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="K8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="16" t="s">
@@ -3309,36 +3464,36 @@
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="16" t="s">
@@ -3347,36 +3502,36 @@
     </row>
     <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K10" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="16" t="s">
@@ -3385,36 +3540,36 @@
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="K11" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="16" t="s">
@@ -3423,36 +3578,36 @@
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K12" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="16" t="s">
@@ -3467,7 +3622,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA327B7F-64E2-4FE3-AD7D-3A0C5D06EFA9}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -3476,41 +3631,373 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="B6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1234</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FD55CB-095F-4EA1-B070-8C6158A78662}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1180" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158CAE17-602C-4D65-9C73-A4C5AEE15989}"/>
+  <xr:revisionPtr revIDLastSave="1534" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6BD878A-5339-4B96-9F64-21AE12ED3867}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Login&amp;Logout_TestCases" sheetId="3" r:id="rId3"/>
     <sheet name="Product_Details_Test_Cases" sheetId="4" r:id="rId4"/>
     <sheet name="Product_Search_Test_Cases" sheetId="5" r:id="rId5"/>
-    <sheet name="Add_to_cart_TestCases" sheetId="6" r:id="rId6"/>
+    <sheet name="Add_to_cart_Test_Cases" sheetId="6" r:id="rId6"/>
+    <sheet name="Checkout_Address_Test_Cases" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="507">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1288,6 +1289,433 @@
   </si>
   <si>
     <t>"Selected product opens correct PDP"</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>TC_CART_01</t>
+  </si>
+  <si>
+    <t>TC_CART_02</t>
+  </si>
+  <si>
+    <t>TC_CART_03</t>
+  </si>
+  <si>
+    <t>TC_CART_04</t>
+  </si>
+  <si>
+    <t>TC_CART_05</t>
+  </si>
+  <si>
+    <t>TC_CART_06</t>
+  </si>
+  <si>
+    <t>TC_CART_07</t>
+  </si>
+  <si>
+    <t>FR_CART_01</t>
+  </si>
+  <si>
+    <t>FR_CART_02</t>
+  </si>
+  <si>
+    <t>FR_CART_03</t>
+  </si>
+  <si>
+    <t>FR_CART_04</t>
+  </si>
+  <si>
+    <t>FR_CART_05</t>
+  </si>
+  <si>
+    <t>FR_CART_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can add an
+ in-stock product to cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is on Product Details
+ Page; product is in stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select product
+2. Click Add to Cart </t>
+  </si>
+  <si>
+    <t>"Product added to cart successfully "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify product details displayed
+ correctly in cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open cart 
+page </t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>"Correct product name, price, and quantity displayed "</t>
+  </si>
+  <si>
+    <t>"product name, price, and quantity displayed correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product already added 
+to cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product present in cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Increase quantity
+2. Update cart </t>
+  </si>
+  <si>
+    <t>Quantity = 2 |</t>
+  </si>
+  <si>
+    <t>"Qauntity updated 
+succesfully "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can increase
+ product quantity in cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can decrease
+ product quantity in cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Decrease quantity
+2. Update cart </t>
+  </si>
+  <si>
+    <t>Quantity = 1 |</t>
+  </si>
+  <si>
+    <t>"Qauntity Decreased 
+succesfully "</t>
+  </si>
+  <si>
+    <t>" Decreased Quantity 
+updated"</t>
+  </si>
+  <si>
+    <t>" Increased Quantity 
+updated"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can remove
+ product quantity in cart </t>
+  </si>
+  <si>
+    <t>"Product removed
+ from cart "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify cart total price is 
+calculated correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple products added to cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click Remove/Delete </t>
+  </si>
+  <si>
+    <t>1. Open cart page |
+Multiple products</t>
+  </si>
+  <si>
+    <t>"Total price caluclated correctly "</t>
+  </si>
+  <si>
+    <t>"Price calculated correctly</t>
+  </si>
+  <si>
+    <t>TS_CART_01</t>
+  </si>
+  <si>
+    <t>TS_CART_02</t>
+  </si>
+  <si>
+    <t>TS_CART_03</t>
+  </si>
+  <si>
+    <t>TS_CART_04</t>
+  </si>
+  <si>
+    <t>TS_CART_05</t>
+  </si>
+  <si>
+    <t>TS_CART_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify out-of-stock product cannot be added to cart </t>
+  </si>
+  <si>
+    <t>Product is out stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Attempt to add product 
+</t>
+  </si>
+  <si>
+    <t>"Add to Cart disabled or error 
+message displayed "</t>
+  </si>
+  <si>
+    <t>" Out of stock message displayed"</t>
+  </si>
+  <si>
+    <t>TC_CART_08</t>
+  </si>
+  <si>
+    <t>Verify cart retains products after page refresh |</t>
+  </si>
+  <si>
+    <t>Product added to cart |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Refresh page
+2. Open cart 
+</t>
+  </si>
+  <si>
+    <t>"Cart retains added product "</t>
+  </si>
+  <si>
+    <t>"Cart retains added product when page is refreshed"</t>
+  </si>
+  <si>
+    <t>TC_CHK_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checkout </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_CHK_01  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_CHK_01 </t>
+  </si>
+  <si>
+    <t>TC_CHK_02</t>
+  </si>
+  <si>
+    <t>TC_CHK_03</t>
+  </si>
+  <si>
+    <t>TC_CHK_04</t>
+  </si>
+  <si>
+    <t>TC_CHK_05</t>
+  </si>
+  <si>
+    <t>TC_CHK_06</t>
+  </si>
+  <si>
+    <t>TC_CHK_07</t>
+  </si>
+  <si>
+    <t>TC_CHK_08</t>
+  </si>
+  <si>
+    <t>TC_CHK_09</t>
+  </si>
+  <si>
+    <t>TC_CHK_10</t>
+  </si>
+  <si>
+    <t>TC_CHK_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can
+ proceed to checkout </t>
+  </si>
+  <si>
+    <t>1. Open cart
+2. Click Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>User navigates to checkout page |</t>
+  </si>
+  <si>
+    <t>"User is able checkout"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_CHK_02</t>
+  </si>
+  <si>
+    <t>TS_CHK_02</t>
+  </si>
+  <si>
+    <t>User on checkout page</t>
+  </si>
+  <si>
+    <t>1. Click Add New Address
+2. Enter valid address details
+3. Save address</t>
+  </si>
+  <si>
+    <t>"Valid address details |
+Address added successfully"</t>
+  </si>
+  <si>
+    <t>"User is able to add new 
+address while checkout"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_CHK_03</t>
+  </si>
+  <si>
+    <t>TS_CHK_03</t>
+  </si>
+  <si>
+    <t>User on Add address page</t>
+  </si>
+  <si>
+    <t>1. Leave mandatory fields empty
+2. Click Save</t>
+  </si>
+  <si>
+    <t>"Blank fields 
+Validation messages displayed "</t>
+  </si>
+  <si>
+    <t>"Mandtory fields
+ requried validation messgae displayed</t>
+  </si>
+  <si>
+    <t>1. Enter invalid pin code
+2. Save address</t>
+  </si>
+  <si>
+    <t>123ad</t>
+  </si>
+  <si>
+    <t>"Invalid pin code |
+Pin code validation error displayed"</t>
+  </si>
+  <si>
+    <t>"invalid pin error message displayed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_CHK_04</t>
+  </si>
+  <si>
+    <t>TS_CHK_04</t>
+  </si>
+  <si>
+    <t>Saved address exists</t>
+  </si>
+  <si>
+    <t>1.Select an existing address</t>
+  </si>
+  <si>
+    <t>Saved address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Adderssed selected  successfully" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_CHK_05</t>
+  </si>
+  <si>
+    <t>TS_CHK_05</t>
+  </si>
+  <si>
+    <t>1. Click Edit
+2. Update address details
+3. Save</t>
+  </si>
+  <si>
+    <t>Update Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Updated Adderss   successfully" </t>
+  </si>
+  <si>
+    <t>"Address is updated succesfully</t>
+  </si>
+  <si>
+    <t>Verify user can delet the address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click delete address. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Deleted Adderss   successfully" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Address is deleted succesfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_CHK_06</t>
+  </si>
+  <si>
+    <t>TS_CHK_06</t>
+  </si>
+  <si>
+    <t>Address selected</t>
+  </si>
+  <si>
+    <t>1.View Delivery option</t>
+  </si>
+  <si>
+    <t>Delivery Types</t>
+  </si>
+  <si>
+    <t>"Dellivery options displayed"</t>
+  </si>
+  <si>
+    <t>"Delivery option displayed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_CHK_07</t>
+  </si>
+  <si>
+    <t>TS_CHK_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can proceed to payment after address selection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify available delivery options are displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can edit existing address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can select existing delivery address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify error for invalid pin code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify validation 
+for mandatory address fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can 
+add a new delivery address </t>
+  </si>
+  <si>
+    <t>1. Click Continue to Payment |</t>
+  </si>
+  <si>
+    <t>Valid address</t>
+  </si>
+  <si>
+    <t>"User is navigates to payment page"</t>
+  </si>
+  <si>
+    <t>"Able to proceed to payment after slecting address</t>
   </si>
 </sst>
 </file>
@@ -3954,13 +4382,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FD55CB-095F-4EA1-B070-8C6158A78662}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
@@ -4000,7 +4440,713 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368E44A-C1B5-4830-AE18-E72BE3842A2B}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1719" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A494135-9BED-4EED-A8B8-FC0461921701}"/>
+  <xr:revisionPtr revIDLastSave="1720" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D0A238-87BF-4872-8AF1-D574E5D7516A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
@@ -5374,8 +5374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510B7E1-8952-42B9-B5A8-7CA1E56285FB}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,7 +5461,7 @@
       <c r="J2" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
@@ -5499,7 +5499,7 @@
       <c r="J3" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -5537,7 +5537,7 @@
       <c r="J4" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -5575,7 +5575,7 @@
       <c r="J5" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="16" t="s">
@@ -5613,7 +5613,7 @@
       <c r="J6" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="16" t="s">
@@ -5651,7 +5651,7 @@
       <c r="J7" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="16" t="s">
@@ -5689,7 +5689,7 @@
       <c r="J8" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="16" t="s">
@@ -5724,7 +5724,7 @@
       <c r="J9" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="16" t="s">
@@ -5762,7 +5762,7 @@
       <c r="J10" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="16" t="s">

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2072" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5613AF84-ACCA-4DB3-916E-06F6F29FD7F1}"/>
+  <xr:revisionPtr revIDLastSave="2296" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50A7922E-A7BE-4C57-AEF4-CC80D25760AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="10" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Payment_Test_Cases" sheetId="9" r:id="rId8"/>
     <sheet name="Order_Confirmation_Test_Cases" sheetId="10" r:id="rId9"/>
     <sheet name="Order_Tracking_Cancellation_Tes" sheetId="11" r:id="rId10"/>
+    <sheet name="Non-Functional_Test_Cases" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="762">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2328,6 +2329,255 @@
   </si>
   <si>
     <t>"Refund status displayed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_NFR_01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NFR_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_NFR_01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify home page loads within 
+acceptable time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable internet connection </t>
+  </si>
+  <si>
+    <t>1. Open application URL
+2. Measure page load time</t>
+  </si>
+  <si>
+    <t>Normal network</t>
+  </si>
+  <si>
+    <t>"Page loads
+ within 3 seconds"</t>
+  </si>
+  <si>
+    <t>TC_NFR_02</t>
+  </si>
+  <si>
+    <t>TC_NFR_03</t>
+  </si>
+  <si>
+    <t>TC_NFR_04</t>
+  </si>
+  <si>
+    <t>TC_NFR_05</t>
+  </si>
+  <si>
+    <t>TC_NFR_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify product search results load quickly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application accessible </t>
+  </si>
+  <si>
+    <t>1. Search for a product</t>
+  </si>
+  <si>
+    <t>Product keyword</t>
+  </si>
+  <si>
+    <t>"Search results displayed
+ within acceptable time "</t>
+  </si>
+  <si>
+    <t>NFR_02</t>
+  </si>
+  <si>
+    <t>TS_NFR_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfy application 
+is user-friendly and easy to navigate </t>
+  </si>
+  <si>
+    <t>Application open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate through major pages </t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>"UI is intuitive 
+and easy to use"</t>
+  </si>
+  <si>
+    <t>"UI is quick
+ and easy use"</t>
+  </si>
+  <si>
+    <t>NFR_03</t>
+  </si>
+  <si>
+    <t>TS_NFR_03</t>
+  </si>
+  <si>
+    <t>Verify password is masked during input</t>
+  </si>
+  <si>
+    <t>Login page open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter password 
+</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>"Password charcters
+ are masked"</t>
+  </si>
+  <si>
+    <t>"Password is
+ masked"</t>
+  </si>
+  <si>
+    <t>Verify application uses secure HTTPS protocol</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>1. Observe URL</t>
+  </si>
+  <si>
+    <t>"Application runs on HTTPS"</t>
+  </si>
+  <si>
+    <t>"Application runs Secure URL (HTTPS)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compatibility </t>
+  </si>
+  <si>
+    <t>TS_NFR_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify application works across supported browsers </t>
+  </si>
+  <si>
+    <t>1. Open app in Chrome
+2. Open app in Firefox
+3. Open app in Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browsers installed </t>
+  </si>
+  <si>
+    <t>Browsers</t>
+  </si>
+  <si>
+    <t>"Application works correctly in all browsers "</t>
+  </si>
+  <si>
+    <t>TC_NFR_07</t>
+  </si>
+  <si>
+    <t>TC_NFR_08</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>NFR_05</t>
+  </si>
+  <si>
+    <t>TS_NFR_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify session timeout after inactivity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User logged in </t>
+  </si>
+  <si>
+    <t>1. Stay idle beyond timeout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idle session </t>
+  </si>
+  <si>
+    <t>"User logged out automatically |"</t>
+  </si>
+  <si>
+    <t>"User logged out automatically "</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>NFR_06</t>
+  </si>
+  <si>
+    <t>TS_NFR_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify application supports keyboard navigation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate using Tab key 
+</t>
+  </si>
+  <si>
+    <t>"User can navigate 
+without mouse"</t>
+  </si>
+  <si>
+    <t>"Supports
+ keyboard navigation"</t>
+  </si>
+  <si>
+    <t>TC_NFR_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Integrity </t>
+  </si>
+  <si>
+    <t>NFR_07</t>
+  </si>
+  <si>
+    <t>TS_NFR_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify cart data remains intact after page refresh </t>
+  </si>
+  <si>
+    <t>Items in cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Refresh page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cart items</t>
+  </si>
+  <si>
+    <t>"Cart data remains
+ unchanged "</t>
+  </si>
+  <si>
+    <t>"Cart data
+ uncahnged"</t>
   </si>
 </sst>
 </file>
@@ -2398,7 +2648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2489,13 +2739,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3107,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6608D6B3-3DD9-45A4-8782-01785087947E}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3456,7 @@
       <c r="J2" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
@@ -3232,7 +3494,7 @@
       <c r="J3" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -3270,7 +3532,7 @@
       <c r="J4" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -3308,7 +3570,7 @@
       <c r="J5" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="37" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="18" t="s">
@@ -3346,7 +3608,7 @@
       <c r="J6" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="37" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="18" t="s">
@@ -3384,7 +3646,7 @@
       <c r="J7" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="37" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="18" t="s">
@@ -3422,10 +3684,417 @@
       <c r="J8" t="s">
         <v>683</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="37" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBB9E62-98BC-4EF8-AD74-BDAD31C3DFDF}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="20" style="16" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="33" customWidth="1"/>
+    <col min="9" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>702</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F4" t="s">
+        <v>707</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6594,7 +7263,7 @@
       <c r="J2" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="14" t="s">
@@ -6632,7 +7301,7 @@
       <c r="J3" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="35" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="14" t="s">
@@ -6670,24 +7339,24 @@
       <c r="J4" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="35" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>577</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>607</v>
       </c>
       <c r="E5" s="29" t="s">
@@ -6699,19 +7368,19 @@
       <c r="G5" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="33" t="s">
         <v>514</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>609</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="K5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="32" t="s">
+      <c r="K5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6746,7 +7415,7 @@
       <c r="J6" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="35" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -6784,7 +7453,7 @@
       <c r="J7" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="35" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -6822,7 +7491,7 @@
       <c r="J8" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="35" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="14" t="s">

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2296" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50A7922E-A7BE-4C57-AEF4-CC80D25760AD}"/>
+  <xr:revisionPtr revIDLastSave="2345" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B041996D-0CC9-4B07-A607-110A7FB59379}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="10" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="User Registration_TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="Login&amp;Logout_TestCases" sheetId="3" r:id="rId3"/>
+    <sheet name="Login&amp;Logout_TestCases" sheetId="3" r:id="rId2"/>
+    <sheet name="User Registration_TestCases" sheetId="2" r:id="rId3"/>
     <sheet name="Product_Details_Test_Cases" sheetId="4" r:id="rId4"/>
     <sheet name="Product_Search_Test_Cases" sheetId="5" r:id="rId5"/>
     <sheet name="Add_to_cart_Test_Cases" sheetId="6" r:id="rId6"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="770">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -803,9 +803,6 @@
 3.Clik outside</t>
   </si>
   <si>
-    <t>"Password is  masked and clicked on eye password is  showen"</t>
-  </si>
-  <si>
     <t>"Re-directed to password reset page "</t>
   </si>
   <si>
@@ -950,10 +947,6 @@
  displayed correctly "</t>
   </si>
   <si>
-    <t>" Product images are
- displayed correctly "</t>
-  </si>
-  <si>
     <t>In-stock product</t>
   </si>
   <si>
@@ -1227,9 +1220,6 @@
 </t>
   </si>
   <si>
-    <t>"Able to select auto suggested from dropdwn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify user can select product from 
 auto-suggest dropdown </t>
   </si>
@@ -1437,9 +1427,6 @@
   </si>
   <si>
     <t>"Total price caluclated correctly "</t>
-  </si>
-  <si>
-    <t>"Price calculated correctly</t>
   </si>
   <si>
     <t>TS_CART_01</t>
@@ -2517,9 +2504,6 @@
     <t>"User logged out automatically |"</t>
   </si>
   <si>
-    <t>"User logged out automatically "</t>
-  </si>
-  <si>
     <t>Accessibility</t>
   </si>
   <si>
@@ -2578,6 +2562,47 @@
   <si>
     <t>"Cart data
  uncahnged"</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Password visible as plain text</t>
+  </si>
+  <si>
+    <t>"Password is not masked and clicked "</t>
+  </si>
+  <si>
+    <t>"Invalid OTP
+ message not displayed "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEF_REG_01</t>
+  </si>
+  <si>
+    <t>DEF_CART_01</t>
+  </si>
+  <si>
+    <t>"Price calculated incorrectly</t>
+  </si>
+  <si>
+    <t>"User remains logged in "</t>
+  </si>
+  <si>
+    <t>DEF_SESSION_01</t>
+  </si>
+  <si>
+    <t>DEF_PDP_01</t>
+  </si>
+  <si>
+    <t>" Product images are
+ displayed in correct"</t>
+  </si>
+  <si>
+    <t>"Not Able to select auto suggested from dropdwn"</t>
+  </si>
+  <si>
+    <t>DEF_SEARCH_01</t>
   </si>
 </sst>
 </file>
@@ -2615,7 +2640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2634,6 +2659,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2648,7 +2679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2713,9 +2744,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2758,6 +2786,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3195,7 +3242,7 @@
         <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -3235,7 +3282,7 @@
         <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3273,7 +3320,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3311,7 +3358,7 @@
         <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -3349,7 +3396,7 @@
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3388,25 +3435,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -3427,268 +3474,268 @@
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="K4" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>638</v>
-      </c>
       <c r="C5" s="18" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="36" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>642</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="J6" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="36" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="J7" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="K7" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="K7" s="36" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D8" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F8" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G8" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H8" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J8" t="s">
-        <v>683</v>
-      </c>
-      <c r="K8" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +3746,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBB9E62-98BC-4EF8-AD74-BDAD31C3DFDF}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3714,33 +3761,33 @@
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="30.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="32" customWidth="1"/>
     <col min="9" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -3758,345 +3805,348 @@
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="H2" s="32" t="s">
         <v>688</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="K2" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="K3" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F4" t="s">
+        <v>703</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="H4" s="32" t="s">
         <v>705</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K4" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="H5" s="32" t="s">
         <v>713</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="I5" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="J5" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>727</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="I7" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>731</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>732</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="K7" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="E8" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="H8" s="32" t="s">
         <v>737</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="I8" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>741</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>742</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>51</v>
+        <v>764</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>757</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>235</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="H9" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="J9" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="H10" s="30" t="s">
         <v>754</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="I10" s="30" t="s">
         <v>755</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="J10" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>760</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>761</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="37" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>235</v>
-      </c>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4105,11 +4155,535 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19" style="16" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="L9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="16" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4125,6 +4699,7 @@
     <col min="9" max="9" width="43.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4152,7 +4727,7 @@
       <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
@@ -4194,13 +4769,13 @@
         <v>66</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K2" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -4232,13 +4807,13 @@
         <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4270,13 +4845,13 @@
         <v>72</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4308,13 +4883,13 @@
         <v>116</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4346,13 +4921,13 @@
         <v>112</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="K6" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4384,13 +4959,13 @@
         <v>83</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K7" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4422,13 +4997,13 @@
         <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>243</v>
-      </c>
-      <c r="K8" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4448,7 +5023,7 @@
         <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>119</v>
@@ -4460,35 +5035,35 @@
         <v>121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K9" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="7">
@@ -4497,84 +5072,87 @@
       <c r="I10" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I11" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>129</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="16" t="s">
         <v>131</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>51</v>
+      <c r="J12" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4600,9 +5178,9 @@
         <v>132</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4628,7 +5206,7 @@
       <c r="I14" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4651,7 +5229,7 @@
       <c r="I15" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4665,536 +5243,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19" style="16" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0A0B2-B5F3-4A49-A089-B3D37B5BF24D}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,7 +5264,7 @@
     <col min="9" max="9" width="13.7109375" style="16" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="12"/>
-    <col min="12" max="12" width="9.140625" style="16"/>
+    <col min="12" max="12" width="12.140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5220,453 +5274,453 @@
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H2" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>260</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>235</v>
+        <v>767</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>260</v>
-      </c>
       <c r="E4" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="F5" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="H5" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="J5" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="H6" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="J6" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="F7" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="H7" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>296</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="I8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K9" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="H11" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5679,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA327B7F-64E2-4FE3-AD7D-3A0C5D06EFA9}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5698,307 +5752,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>326</v>
       </c>
-      <c r="C2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" t="s">
-        <v>328</v>
-      </c>
       <c r="E2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>336</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="K2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H3" t="s">
-        <v>338</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="K3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>235</v>
+        <v>768</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="K5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="K6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="F7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" t="s">
         <v>334</v>
       </c>
-      <c r="B8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" t="s">
-        <v>336</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H8" s="6">
         <v>1234</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6011,8 +6065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FD55CB-095F-4EA1-B070-8C6158A78662}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6030,331 +6084,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K2" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="K3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="K5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="I7" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>51</v>
+        <v>763</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>757</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>235</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="K8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="K9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6367,7 +6421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368E44A-C1B5-4830-AE18-E72BE3842A2B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -6386,374 +6440,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="J3" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="J4" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="H5" s="16" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="K5" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="I6" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="J7" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K8" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="I9" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="J9" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="K10" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6766,7 +6820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510B7E1-8952-42B9-B5A8-7CA1E56285FB}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -6785,380 +6839,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K2" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="E5" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>518</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>514</v>
-      </c>
       <c r="C7" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K8" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="K10" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -7195,25 +7249,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -7234,268 +7288,268 @@
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="H2" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="I2" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>587</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="J3" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>596</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>595</v>
-      </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>597</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="G5" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K4" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="E5" s="29" t="s">
+      <c r="H5" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>235</v>
+      <c r="J5" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="H6" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>612</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>624</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="I8" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>621</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>627</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>628</v>
-      </c>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2345" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B041996D-0CC9-4B07-A607-110A7FB59379}"/>
+  <xr:revisionPtr revIDLastSave="2522" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{960E541B-DFE8-443B-847E-A4F0C54E908C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="767">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -511,9 +511,6 @@
 New OTP sent successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">New OTP Sent Successfully </t>
-  </si>
-  <si>
     <t>TC_LOGIN_01</t>
   </si>
   <si>
@@ -521,36 +518,6 @@
   </si>
   <si>
     <t>FR-LOGIN-02</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-03</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-04</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-05</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-06</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-07</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-08</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-09</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-10</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-11</t>
-  </si>
-  <si>
-    <t>FR-LOGIN-12</t>
   </si>
   <si>
     <t>TS_LOGIN_01</t>
@@ -821,47 +788,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">"Account created successfully </t>
-  </si>
-  <si>
     <t>Phone number should be valid</t>
-  </si>
-  <si>
-    <t>"Password not matched"</t>
-  </si>
-  <si>
-    <t>"Enter Mandatory Fields message dispalyed"</t>
-  </si>
-  <si>
-    <t>"Invalid Email Message displayed "</t>
-  </si>
-  <si>
-    <t>"Email required message displayed "</t>
-  </si>
-  <si>
-    <t>"Strong Password message displayed "</t>
-  </si>
-  <si>
-    <t>"Email already regitered messgae displayed"</t>
-  </si>
-  <si>
-    <t>"Valid Phone number
- regitered"</t>
-  </si>
-  <si>
-    <t>"Phone number invalid message
- displayed"</t>
-  </si>
-  <si>
-    <t>"OTP should be received to valid phone number"</t>
-  </si>
-  <si>
-    <t>"OTP received to registred
- phone no"</t>
-  </si>
-  <si>
-    <t>"Invalid OTP
- message displayed "</t>
   </si>
   <si>
     <t>Phone number Registered</t>
@@ -887,15 +814,7 @@
 </t>
   </si>
   <si>
-    <t>"Product name, brand,
- and basic details are displayed "</t>
-  </si>
-  <si>
     <t xml:space="preserve">User is on Product Details Page </t>
-  </si>
-  <si>
-    <t>"Product name, brand,
- and basic details are displayed  when opened product details page"</t>
   </si>
   <si>
     <t xml:space="preserve">FR_PDP_02 </t>
@@ -943,10 +862,6 @@
 Product </t>
   </si>
   <si>
-    <t>"Product images are
- displayed correctly "</t>
-  </si>
-  <si>
     <t>In-stock product</t>
   </si>
   <si>
@@ -957,17 +872,6 @@
 Product</t>
   </si>
   <si>
-    <t>"Image zoom is dispalye
-correctly "</t>
-  </si>
-  <si>
-    <t>"Image zoomed and displayed
-correctly "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR_PDP_03 </t>
-  </si>
-  <si>
     <t>TS_PDP_03</t>
   </si>
   <si>
@@ -975,10 +879,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. View product price </t>
-  </si>
-  <si>
-    <t>"Correct product price 
-is displayed "</t>
   </si>
   <si>
     <t xml:space="preserve">Correct product price 
@@ -998,12 +898,6 @@
 is displayed </t>
   </si>
   <si>
-    <t>"Stock status (In stock / Out of stock) is displayed "</t>
-  </si>
-  <si>
-    <t>FR_PDP_04</t>
-  </si>
-  <si>
     <t>FR_PDP_05</t>
   </si>
   <si>
@@ -1013,17 +907,6 @@
     <t xml:space="preserve">Verify user can select product quantity </t>
   </si>
   <si>
-    <t>\1. Select quantity from dropdown |
-Quantity</t>
-  </si>
-  <si>
-    <t>"Able to select quantity"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Quantity from dropdown should be selected" 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">  NA</t>
   </si>
   <si>
@@ -1037,13 +920,6 @@
   </si>
   <si>
     <t>1. Observe Add to Cart button |</t>
-  </si>
-  <si>
-    <t>"Add to Cart button
- is visible "</t>
-  </si>
-  <si>
-    <t>"Cart button visbile"</t>
   </si>
   <si>
     <t>Verify Add to Cart button enabled for in-
@@ -1053,13 +929,6 @@
     <t xml:space="preserve">Verify Add to Cart button is displayed </t>
   </si>
   <si>
-    <t>"Product is added 
-to cart successfully "</t>
-  </si>
-  <si>
-    <t>"Products can added to cart"</t>
-  </si>
-  <si>
     <t>1. Click Add to Cart 
 Product</t>
   </si>
@@ -1075,17 +944,7 @@
 Product </t>
   </si>
   <si>
-    <t>"Add to Cart button is
- disabled "</t>
-  </si>
-  <si>
-    <t>"Addcart button disbaled for out stock product"</t>
-  </si>
-  <si>
     <t>TS_PDP_07</t>
-  </si>
-  <si>
-    <t>FR_PDP_07</t>
   </si>
   <si>
     <t>Verify product description is displayed |</t>
@@ -1095,13 +954,6 @@
 Product</t>
   </si>
   <si>
-    <t>"Product description 
-is displayed "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Product description is displayed" </t>
-  </si>
-  <si>
     <t>Verify product specifications are displayed |</t>
   </si>
   <si>
@@ -1109,13 +961,6 @@
 Product </t>
   </si>
   <si>
-    <t>"Product specifications 
-are displayed |</t>
-  </si>
-  <si>
-    <t>"Product specifications are displayed "</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC_SEARCH_01 </t>
   </si>
   <si>
@@ -1159,14 +1004,6 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">"Serach text is accpeted"
-</t>
-  </si>
-  <si>
-    <t>"Keyword accepeted in
-search"</t>
-  </si>
-  <si>
     <t xml:space="preserve">FR_SEARCH_02 </t>
   </si>
   <si>
@@ -1199,13 +1036,6 @@
 keyword </t>
   </si>
   <si>
-    <t>"Dropdown shows releveant product suggestion "</t>
-  </si>
-  <si>
-    <t>"Relevant product is 
-shown in dropdown</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dropdown visible </t>
   </si>
   <si>
@@ -1216,10 +1046,6 @@
     <t>Product name</t>
   </si>
   <si>
-    <t xml:space="preserve">"Selected product is highlighted
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify user can select product from 
 auto-suggest dropdown </t>
   </si>
@@ -1234,14 +1060,6 @@
     <t>Mob</t>
   </si>
   <si>
-    <t xml:space="preserve">"Dropdown displays products related"
- to keyword </t>
-  </si>
-  <si>
-    <t>"Relevant product is 
-shown in dropdown and matched to keyword</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify redirection to correct Product Details Page </t>
   </si>
   <si>
@@ -1252,9 +1070,6 @@
 </t>
   </si>
   <si>
-    <t>"User redirected to selected product’s details page"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify no-result message for 
 unmatched search </t>
   </si>
@@ -1262,10 +1077,6 @@
     <t>1. Enter random keyword |</t>
   </si>
   <si>
-    <t>"No results message
- displayed"</t>
-  </si>
-  <si>
     <t>Verify dropdown selection using keyboard |</t>
   </si>
   <si>
@@ -1279,12 +1090,6 @@
     <t>Keyboar</t>
   </si>
   <si>
-    <t xml:space="preserve">"Selected product opens correct PDP" </t>
-  </si>
-  <si>
-    <t>"Selected product opens correct PDP"</t>
-  </si>
-  <si>
     <t>Add to cart</t>
   </si>
   <si>
@@ -1339,9 +1144,6 @@
 2. Click Add to Cart </t>
   </si>
   <si>
-    <t>"Product added to cart successfully "</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify product details displayed
  correctly in cart </t>
   </si>
@@ -1353,12 +1155,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>"Correct product name, price, and quantity displayed "</t>
-  </si>
-  <si>
-    <t>"product name, price, and quantity displayed correctly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Product already added 
 to cart </t>
   </si>
@@ -1373,10 +1169,6 @@
     <t>Quantity = 2 |</t>
   </si>
   <si>
-    <t>"Qauntity updated 
-succesfully "</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify user can increase
  product quantity in cart </t>
   </si>
@@ -1392,26 +1184,10 @@
     <t>Quantity = 1 |</t>
   </si>
   <si>
-    <t>"Qauntity Decreased 
-succesfully "</t>
-  </si>
-  <si>
-    <t>" Decreased Quantity 
-updated"</t>
-  </si>
-  <si>
-    <t>" Increased Quantity 
-updated"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify user can remove
  product quantity in cart </t>
   </si>
   <si>
-    <t>"Product removed
- from cart "</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify cart total price is 
 calculated correctly </t>
   </si>
@@ -1426,9 +1202,6 @@
 Multiple products</t>
   </si>
   <si>
-    <t>"Total price caluclated correctly "</t>
-  </si>
-  <si>
     <t>TS_CART_01</t>
   </si>
   <si>
@@ -1455,13 +1228,6 @@
   <si>
     <t xml:space="preserve">1. Attempt to add product 
 </t>
-  </si>
-  <si>
-    <t>"Add to Cart disabled or error 
-message displayed "</t>
-  </si>
-  <si>
-    <t>" Out of stock message displayed"</t>
   </si>
   <si>
     <t>TC_CART_08</t>
@@ -1478,12 +1244,6 @@
 </t>
   </si>
   <si>
-    <t>"Cart retains added product "</t>
-  </si>
-  <si>
-    <t>"Cart retains added product when page is refreshed"</t>
-  </si>
-  <si>
     <t>TC_CHK_01</t>
   </si>
   <si>
@@ -1529,9 +1289,6 @@
   </si>
   <si>
     <t>User navigates to checkout page |</t>
-  </si>
-  <si>
-    <t>"User is able checkout"</t>
   </si>
   <si>
     <t xml:space="preserve"> FR_CHK_02</t>
@@ -1548,14 +1305,6 @@
 3. Save address</t>
   </si>
   <si>
-    <t>"Valid address details |
-Address added successfully"</t>
-  </si>
-  <si>
-    <t>"User is able to add new 
-address while checkout"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FR_CHK_03</t>
   </si>
   <si>
@@ -1569,14 +1318,6 @@
 2. Click Save</t>
   </si>
   <si>
-    <t>"Blank fields 
-Validation messages displayed "</t>
-  </si>
-  <si>
-    <t>"Mandtory fields
- requried validation messgae displayed</t>
-  </si>
-  <si>
     <t>1. Enter invalid pin code
 2. Save address</t>
   </si>
@@ -1584,13 +1325,6 @@
     <t>123ad</t>
   </si>
   <si>
-    <t>"Invalid pin code |
-Pin code validation error displayed"</t>
-  </si>
-  <si>
-    <t>"invalid pin error message displayed:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FR_CHK_04</t>
   </si>
   <si>
@@ -1604,9 +1338,6 @@
   </si>
   <si>
     <t>Saved address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Adderssed selected  successfully" </t>
   </si>
   <si>
     <t xml:space="preserve"> FR_CHK_05</t>
@@ -1623,24 +1354,12 @@
     <t>Update Address</t>
   </si>
   <si>
-    <t xml:space="preserve">"Updated Adderss   successfully" </t>
-  </si>
-  <si>
-    <t>"Address is updated succesfully</t>
-  </si>
-  <si>
     <t>Verify user can delet the address</t>
   </si>
   <si>
     <t xml:space="preserve">1. Click delete address. </t>
   </si>
   <si>
-    <t xml:space="preserve">"Deleted Adderss   successfully" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Address is deleted succesfully </t>
-  </si>
-  <si>
     <t xml:space="preserve"> FR_CHK_06</t>
   </si>
   <si>
@@ -1654,12 +1373,6 @@
   </si>
   <si>
     <t>Delivery Types</t>
-  </si>
-  <si>
-    <t>"Dellivery options displayed"</t>
-  </si>
-  <si>
-    <t>"Delivery option displayed"</t>
   </si>
   <si>
     <t xml:space="preserve"> FR_CHK_07</t>
@@ -1697,12 +1410,6 @@
     <t>Valid address</t>
   </si>
   <si>
-    <t>"User is navigates to payment page"</t>
-  </si>
-  <si>
-    <t>"Able to proceed to payment after slecting address</t>
-  </si>
-  <si>
     <t>TC_PAY_01</t>
   </si>
   <si>
@@ -1762,14 +1469,6 @@
   </si>
   <si>
     <t>Payment option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"All supported payment methods "
-are displayed </t>
-  </si>
-  <si>
-    <t>"All the paymet method
- displayed</t>
   </si>
   <si>
     <t xml:space="preserve">Verify available payment 
@@ -1793,14 +1492,6 @@
   </si>
   <si>
     <t>Valid card detilas</t>
-  </si>
-  <si>
-    <t>"Valid card details "
-Payment completed successfully</t>
-  </si>
-  <si>
-    <t>"Payment succesfull
- cerdit/dedit card</t>
   </si>
   <si>
     <t xml:space="preserve">Verify error for invalid card details </t>
@@ -1819,14 +1510,6 @@
     <t>Invalid card details |</t>
   </si>
   <si>
-    <t>"Payment Failure
- message displayed"</t>
-  </si>
-  <si>
-    <t>"Invalid card details 
-messgae displayed"</t>
-  </si>
-  <si>
     <t>FR_PAY_03</t>
   </si>
   <si>
@@ -1838,13 +1521,6 @@
     <t>Valid UPI ID options</t>
   </si>
   <si>
-    <t>"Payment completed
- succesfully"</t>
-  </si>
-  <si>
-    <t>"UPI ID selected succesfully</t>
-  </si>
-  <si>
     <t>Verify error  for invalid  UPI ID</t>
   </si>
   <si>
@@ -1856,13 +1532,6 @@
     <t>invalid@123</t>
   </si>
   <si>
-    <t>"Error messgae displayed"</t>
-  </si>
-  <si>
-    <t>"Invalid upi id  
-messgae displayed"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify user can select Cash on Delivery </t>
   </si>
   <si>
@@ -1879,13 +1548,6 @@
     <t>COD</t>
   </si>
   <si>
-    <t>"Order placed succesfully"</t>
-  </si>
-  <si>
-    <t>"Order placed 
-succesfully"</t>
-  </si>
-  <si>
     <t>Verify system handles payment failure gracefully |</t>
   </si>
   <si>
@@ -1899,10 +1561,6 @@
     <t>Payment failure</t>
   </si>
   <si>
-    <t>"Failure message 
-displayed and user stays on payment page "</t>
-  </si>
-  <si>
     <t>Verify payment success message |</t>
   </si>
   <si>
@@ -1910,13 +1568,6 @@
   </si>
   <si>
     <t>Payment completed</t>
-  </si>
-  <si>
-    <t>"Payment success
- message displayed "</t>
-  </si>
-  <si>
-    <t>"Payment success message displayed "</t>
   </si>
   <si>
     <t xml:space="preserve">1. Observe confirmation screen 
@@ -1936,10 +1587,6 @@
     <t>HTTPS</t>
   </si>
   <si>
-    <t>"Payment page 
-uses secure HTTPS"</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC_OC_01 </t>
   </si>
   <si>
@@ -1986,14 +1633,6 @@
 payment</t>
   </si>
   <si>
-    <t>"Order confirmation 
-page displayed"</t>
-  </si>
-  <si>
-    <t>"Order placed succesfully
- messgae displayed"</t>
-  </si>
-  <si>
     <t>FR_OC_02</t>
   </si>
   <si>
@@ -2004,14 +1643,6 @@
   </si>
   <si>
     <t>Order</t>
-  </si>
-  <si>
-    <t>"Unique 
-order ID displayed "</t>
-  </si>
-  <si>
-    <t>"Unique order ID is
-generated"</t>
   </si>
   <si>
     <t xml:space="preserve">Verify unique order
@@ -2038,14 +1669,6 @@
     <t xml:space="preserve">Ordered products </t>
   </si>
   <si>
-    <t xml:space="preserve">"Correct product, quantity, 
-and price displayed" </t>
-  </si>
-  <si>
-    <t>"All ordered details 
-displayed"</t>
-  </si>
-  <si>
     <t>Verify payment status 
 is displayed correctly</t>
   </si>
@@ -2060,10 +1683,6 @@
 </t>
   </si>
   <si>
-    <t>"Payment
- status shown as Successful"</t>
-  </si>
-  <si>
     <t>FR_OC_05</t>
   </si>
   <si>
@@ -2081,10 +1700,6 @@
  message </t>
   </si>
   <si>
-    <t>"Order placed 
-successfully message displayed "</t>
-  </si>
-  <si>
     <t>FR_OC_06</t>
   </si>
   <si>
@@ -2095,10 +1710,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Navigate to My Orders </t>
-  </si>
-  <si>
-    <t>"Order appears 
-in My Orders list "</t>
   </si>
   <si>
     <t xml:space="preserve">Verify confirmation 
@@ -2119,14 +1730,6 @@
   </si>
   <si>
     <t>Email/Sms</t>
-  </si>
-  <si>
-    <t>"Order confirmation 
-notification received "</t>
-  </si>
-  <si>
-    <t>"Order 
-confirmation notification received "</t>
   </si>
   <si>
     <t xml:space="preserve">TC_OT_01 </t>
@@ -2211,23 +1814,12 @@
     <t>Placed Order</t>
   </si>
   <si>
-    <t>"Order tracking details 
-displayed "</t>
-  </si>
-  <si>
-    <t>"Order tracking 
-details displayed"</t>
-  </si>
-  <si>
     <t>Verify order status
  is updated correctly</t>
   </si>
   <si>
     <t xml:space="preserve">1. Track order 
 at different stages </t>
-  </si>
-  <si>
-    <t>"Order status updates(placed/shipped/Delivered)"</t>
   </si>
   <si>
     <t xml:space="preserve">Verify user can cancel 
@@ -2239,12 +1831,6 @@
 3. Click Cancel Order </t>
   </si>
   <si>
-    <t>"Order Cancelled successfully"</t>
-  </si>
-  <si>
-    <t>"Order status updated"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify cancel option 
 is disabled after order is shipped </t>
   </si>
@@ -2255,14 +1841,6 @@
     <t>Shipped order</t>
   </si>
   <si>
-    <t>"Cancel option
- disabled or not displayed "</t>
-  </si>
-  <si>
-    <t>"Cancel option
- disabled after shipment"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify cancellation 
 confirmation message is displayed </t>
   </si>
@@ -2277,14 +1855,6 @@
     <t xml:space="preserve">Cancelled order </t>
   </si>
   <si>
-    <t>"Order cancellation 
-confirmation displayed "</t>
-  </si>
-  <si>
-    <t>"Cancellation 
-confirmation message displayed"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify refund status is displayed for cancelled order </t>
   </si>
   <si>
@@ -2299,23 +1869,10 @@
 prepaid order </t>
   </si>
   <si>
-    <t>"Refund status displayed 
-correctly "</t>
-  </si>
-  <si>
     <t>Verify order status shows Cancelled</t>
   </si>
   <si>
-    <t>"Order status displayed as Cancelled "</t>
-  </si>
-  <si>
     <t>1. View order status</t>
-  </si>
-  <si>
-    <t>"Order status after cancellation"</t>
-  </si>
-  <si>
-    <t>"Refund status displayed"</t>
   </si>
   <si>
     <t xml:space="preserve">TC_NFR_01 </t>
@@ -2344,10 +1901,6 @@
     <t>Normal network</t>
   </si>
   <si>
-    <t>"Page loads
- within 3 seconds"</t>
-  </si>
-  <si>
     <t>TC_NFR_02</t>
   </si>
   <si>
@@ -2373,10 +1926,6 @@
   </si>
   <si>
     <t>Product keyword</t>
-  </si>
-  <si>
-    <t>"Search results displayed
- within acceptable time "</t>
   </si>
   <si>
     <t>NFR_02</t>
@@ -2398,14 +1947,6 @@
     <t>Application</t>
   </si>
   <si>
-    <t>"UI is intuitive 
-and easy to use"</t>
-  </si>
-  <si>
-    <t>"UI is quick
- and easy use"</t>
-  </si>
-  <si>
     <t>NFR_03</t>
   </si>
   <si>
@@ -2425,14 +1966,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>"Password charcters
- are masked"</t>
-  </si>
-  <si>
-    <t>"Password is
- masked"</t>
-  </si>
-  <si>
     <t>Verify application uses secure HTTPS protocol</t>
   </si>
   <si>
@@ -2443,12 +1976,6 @@
   </si>
   <si>
     <t>1. Observe URL</t>
-  </si>
-  <si>
-    <t>"Application runs on HTTPS"</t>
-  </si>
-  <si>
-    <t>"Application runs Secure URL (HTTPS)"</t>
   </si>
   <si>
     <t xml:space="preserve">Compatibility </t>
@@ -2471,9 +1998,6 @@
     <t>Browsers</t>
   </si>
   <si>
-    <t>"Application works correctly in all browsers "</t>
-  </si>
-  <si>
     <t>TC_NFR_07</t>
   </si>
   <si>
@@ -2499,9 +2023,6 @@
   </si>
   <si>
     <t xml:space="preserve">Idle session </t>
-  </si>
-  <si>
-    <t>"User logged out automatically |"</t>
   </si>
   <si>
     <t>Accessibility</t>
@@ -2523,14 +2044,6 @@
 </t>
   </si>
   <si>
-    <t>"User can navigate 
-without mouse"</t>
-  </si>
-  <si>
-    <t>"Supports
- keyboard navigation"</t>
-  </si>
-  <si>
     <t>TC_NFR_09</t>
   </si>
   <si>
@@ -2556,14 +2069,6 @@
 Cart items</t>
   </si>
   <si>
-    <t>"Cart data remains
- unchanged "</t>
-  </si>
-  <si>
-    <t>"Cart data
- uncahnged"</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -2573,36 +2078,521 @@
     <t>"Password is not masked and clicked "</t>
   </si>
   <si>
-    <t>"Invalid OTP
- message not displayed "</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DEF_REG_01</t>
   </si>
   <si>
     <t>DEF_CART_01</t>
   </si>
   <si>
-    <t>"Price calculated incorrectly</t>
-  </si>
-  <si>
-    <t>"User remains logged in "</t>
-  </si>
-  <si>
     <t>DEF_SESSION_01</t>
   </si>
   <si>
     <t>DEF_PDP_01</t>
   </si>
   <si>
-    <t>" Product images are
- displayed in correct"</t>
-  </si>
-  <si>
-    <t>"Not Able to select auto suggested from dropdwn"</t>
-  </si>
-  <si>
     <t>DEF_SEARCH_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account created successfully </t>
+  </si>
+  <si>
+    <t>Password not matched</t>
+  </si>
+  <si>
+    <t>Enter Mandatory Fields message dispalyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Email Message displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email required message displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong Password message displayed </t>
+  </si>
+  <si>
+    <t>Email already regitered messgae displayed</t>
+  </si>
+  <si>
+    <t>Valid Phone number
+ regitered</t>
+  </si>
+  <si>
+    <t>OTP should be received to valid phone number</t>
+  </si>
+  <si>
+    <t>OTP received to registred
+ phone no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid OTP
+ message not displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid OTP
+ message displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product name, brand,
+ and basic details are displayed </t>
+  </si>
+  <si>
+    <t>Product name, brand,
+ and basic details are displayed  when opened product details page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product images are
+ displayed correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product images are
+ displayed in correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image zoom is dispalye
+correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image zoomed and displayed
+correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock status (In stock / Out of stock) is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity from dropdown should be selected 
+</t>
+  </si>
+  <si>
+    <t>Able to select quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to Cart button
+ is visible </t>
+  </si>
+  <si>
+    <t>Cart button visbile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product is added 
+to cart successfully </t>
+  </si>
+  <si>
+    <t>Products can added to cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to Cart button is
+ disabled </t>
+  </si>
+  <si>
+    <t>Addcart button disbaled for out stock product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product description 
+is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product description is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product specifications are displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product specifications 
+are displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serach text is accpeted
+</t>
+  </si>
+  <si>
+    <t>Keyword accepeted in
+search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropdown shows releveant product suggestion </t>
+  </si>
+  <si>
+    <t>Relevant product is 
+shown in dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected product is highlighted
+</t>
+  </si>
+  <si>
+    <t>Not Able to select auto suggested from dropdwn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropdown displays products related
+ to keyword </t>
+  </si>
+  <si>
+    <t>Relevant product is 
+shown in dropdown and matched to keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected product opens correct PDP </t>
+  </si>
+  <si>
+    <t>Selected product opens correct PDP</t>
+  </si>
+  <si>
+    <t>User redirected to selected product’s details page</t>
+  </si>
+  <si>
+    <t>No results message
+ displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct product name, price, and quantity displayed </t>
+  </si>
+  <si>
+    <t>product name, price, and quantity displayed correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qauntity updated 
+succesfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Increased Quantity 
+updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qauntity Decreased 
+succesfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Decreased Quantity 
+updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product removed
+ from cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total price caluclated correctly </t>
+  </si>
+  <si>
+    <t>Price calculated incorrectly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to Cart disabled or error 
+message displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Out of stock message displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart retains added product </t>
+  </si>
+  <si>
+    <t>Cart retains added product when page is refreshed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product added to cart successfully </t>
+  </si>
+  <si>
+    <t>Valid address details |
+Address added successfully</t>
+  </si>
+  <si>
+    <t>User is able to add new 
+address while checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank fields 
+Validation messages displayed </t>
+  </si>
+  <si>
+    <t>Mandtory fields
+ requried validation messgae displayed</t>
+  </si>
+  <si>
+    <t>Invalid pin code |
+Pin code validation error displayed</t>
+  </si>
+  <si>
+    <t>User is able checkout</t>
+  </si>
+  <si>
+    <t>invalid pin error message displayed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adderssed selected  successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Adderss   successfully </t>
+  </si>
+  <si>
+    <t>Address is updated succesfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleted Adderss   successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address is deleted succesfully </t>
+  </si>
+  <si>
+    <t>Dellivery options displayed</t>
+  </si>
+  <si>
+    <t>Delivery option displayed</t>
+  </si>
+  <si>
+    <t>User is navigates to payment page</t>
+  </si>
+  <si>
+    <t>Able to proceed to payment after slecting address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All supported payment methods 
+are displayed </t>
+  </si>
+  <si>
+    <t>All the paymet method
+ displayed</t>
+  </si>
+  <si>
+    <t>Valid card details 
+Payment completed successfully</t>
+  </si>
+  <si>
+    <t>Payment succesfull
+ cerdit/dedit card</t>
+  </si>
+  <si>
+    <t>Payment Failure
+ message displayed</t>
+  </si>
+  <si>
+    <t>Invalid card details 
+messgae displayed</t>
+  </si>
+  <si>
+    <t>Payment completed
+ succesfully</t>
+  </si>
+  <si>
+    <t>UPI ID selected succesfully</t>
+  </si>
+  <si>
+    <t>Error messgae displayed</t>
+  </si>
+  <si>
+    <t>Invalid upi id  
+messgae displayed</t>
+  </si>
+  <si>
+    <t>Order placed succesfully</t>
+  </si>
+  <si>
+    <t>Order placed 
+succesfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failure message 
+displayed and user stays on payment page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment success
+ message displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment success message displayed </t>
+  </si>
+  <si>
+    <t>Payment page 
+uses secure HTTPS</t>
+  </si>
+  <si>
+    <t>Order confirmation 
+page displayed</t>
+  </si>
+  <si>
+    <t>Order placed succesfully
+ messgae displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique 
+order ID displayed </t>
+  </si>
+  <si>
+    <t>Unique order ID is
+generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct product, quantity, 
+and price displayed </t>
+  </si>
+  <si>
+    <t>All ordered details 
+displayed</t>
+  </si>
+  <si>
+    <t>Payment
+ status shown as Successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order placed 
+successfully message displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order appears 
+in My Orders list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order confirmation 
+notification received </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order 
+confirmation notification received </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order tracking details 
+displayed </t>
+  </si>
+  <si>
+    <t>Order tracking 
+details displayed</t>
+  </si>
+  <si>
+    <t>Order status updates(placed/shipped/Delivered)</t>
+  </si>
+  <si>
+    <t>Order status updated</t>
+  </si>
+  <si>
+    <t>Order Cancelled successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel option
+ disabled or not displayed </t>
+  </si>
+  <si>
+    <t>Cancel option
+ disabled after shipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order cancellation 
+confirmation displayed </t>
+  </si>
+  <si>
+    <t>Cancellation 
+confirmation message displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refund status displayed 
+correctly </t>
+  </si>
+  <si>
+    <t>Refund status displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order status displayed as Cancelled </t>
+  </si>
+  <si>
+    <t>Order status after cancellation</t>
+  </si>
+  <si>
+    <t>Page loads
+ within 3 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search results displayed
+ within acceptable time </t>
+  </si>
+  <si>
+    <t>UI is intuitive 
+and easy to use</t>
+  </si>
+  <si>
+    <t>UI is quick
+ and easy use</t>
+  </si>
+  <si>
+    <t>Password charcters
+ are masked</t>
+  </si>
+  <si>
+    <t>Password is
+ masked</t>
+  </si>
+  <si>
+    <t>Application runs on HTTPS</t>
+  </si>
+  <si>
+    <t>Application runs Secure URL (HTTPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application works correctly in all browsers </t>
+  </si>
+  <si>
+    <t>User logged out automatically |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User remains logged in </t>
+  </si>
+  <si>
+    <t>User can navigate 
+without mouse</t>
+  </si>
+  <si>
+    <t>Supports
+ keyboard navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart data remains
+ unchanged </t>
+  </si>
+  <si>
+    <t>Cart data
+ uncahnged</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_03</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_04</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_05</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_06</t>
+  </si>
+  <si>
+    <t>A new OTP should be generated and sent successfully</t>
+  </si>
+  <si>
+    <t>Appropriate validation error message should be displayed”
+ displayed</t>
+  </si>
+  <si>
+    <t>TC_REG_12</t>
+  </si>
+  <si>
+    <t>TC_REG_13</t>
+  </si>
+  <si>
+    <t>TC_REG_14</t>
+  </si>
+  <si>
+    <t>Verify product details page loads  correctly</t>
+  </si>
+  <si>
+    <t>TC_PDP_12</t>
+  </si>
+  <si>
+    <t>Product page loaded sucessfully</t>
+  </si>
+  <si>
+    <t>FR_PDP_03</t>
+  </si>
+  <si>
+    <t>1. Select quantity from dropdown 
+Quantity</t>
   </si>
 </sst>
 </file>
@@ -2679,7 +2669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2704,9 +2694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2790,7 +2777,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2805,6 +2791,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3148,7 +3141,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3235,7 @@
         <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -3282,7 +3275,7 @@
         <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3320,7 +3313,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3358,7 +3351,7 @@
         <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -3396,7 +3389,7 @@
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3410,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,26 +3427,26 @@
     <col min="10" max="10" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -3472,270 +3465,270 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>627</v>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>514</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>647</v>
+        <v>534</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>648</v>
+        <v>535</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>650</v>
+        <v>536</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>537</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>641</v>
+        <v>726</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>609</v>
+        <v>538</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>500</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>589</v>
+        <v>539</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>485</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>659</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>636</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>642</v>
+        <v>727</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>529</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>650</v>
+        <v>540</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>537</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>650</v>
+        <v>541</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>537</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>658</v>
+        <v>729</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>634</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>643</v>
+        <v>729</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>530</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>662</v>
+        <v>542</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>544</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>663</v>
+        <v>730</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>634</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>644</v>
+        <v>731</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>531</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>666</v>
+        <v>545</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>546</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>668</v>
+        <v>547</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>548</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>645</v>
+        <v>733</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>532</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>671</v>
+        <v>549</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>673</v>
+        <v>550</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>551</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>674</v>
+        <v>552</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>680</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>234</v>
+        <v>734</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>633</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
-        <v>634</v>
+        <v>521</v>
       </c>
       <c r="C8" t="s">
-        <v>640</v>
+        <v>527</v>
       </c>
       <c r="D8" t="s">
-        <v>646</v>
+        <v>533</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>676</v>
+        <v>553</v>
       </c>
       <c r="F8" t="s">
-        <v>666</v>
+        <v>546</v>
       </c>
       <c r="G8" t="s">
-        <v>678</v>
+        <v>554</v>
       </c>
       <c r="H8" t="s">
-        <v>668</v>
+        <v>548</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>677</v>
+        <v>736</v>
       </c>
       <c r="J8" t="s">
-        <v>679</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>234</v>
+        <v>737</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3748,46 +3741,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBB9E62-98BC-4EF8-AD74-BDAD31C3DFDF}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="20" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20" style="15" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="31" customWidth="1"/>
     <col min="9" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -3803,350 +3796,350 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>683</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>684</v>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>558</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>688</v>
+        <v>559</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>562</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>689</v>
+        <v>738</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>234</v>
+        <v>738</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>683</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>698</v>
+      <c r="A3" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>571</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>234</v>
+        <v>739</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>700</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>701</v>
+      <c r="A4" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>573</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>702</v>
+        <v>574</v>
       </c>
       <c r="F4" t="s">
-        <v>703</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>705</v>
+        <v>575</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>577</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="K4" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>710</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>713</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>583</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>234</v>
+        <v>743</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="H6" s="32" t="s">
+      <c r="A6" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>234</v>
+        <v>745</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>727</v>
+      <c r="D7" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>593</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>234</v>
+        <v>746</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>731</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>734</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>735</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>737</v>
+      <c r="A8" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>602</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>757</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>743</v>
+        <v>748</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>607</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>369</v>
+        <v>608</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>314</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>234</v>
+        <v>750</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>747</v>
+        <v>609</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>748</v>
+        <v>610</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>749</v>
+        <v>611</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>750</v>
+        <v>612</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>751</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="J10" s="29" t="s">
         <v>752</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>754</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>755</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="36" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K11" s="22"/>
+      <c r="K11" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4158,21 +4151,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A12" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19" style="16" customWidth="1"/>
+    <col min="10" max="10" width="19" style="15" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4182,494 +4175,494 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
+      <c r="C4" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K4" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>193</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K5" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="L9" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="18" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="16" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>234</v>
+      <c r="K14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4682,78 +4675,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="75.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="36" style="8" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="40.140625" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>109</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -4769,13 +4762,13 @@
         <v>66</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -4785,10 +4778,10 @@
       <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
@@ -4803,147 +4796,147 @@
       <c r="H3" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K3" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J4" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J5" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J6" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -4959,13 +4952,13 @@
         <v>83</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K7" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4975,10 +4968,10 @@
       <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E8" t="s">
@@ -4993,17 +4986,17 @@
       <c r="H8" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>242</v>
-      </c>
-      <c r="K8" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5013,17 +5006,17 @@
       <c r="B9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>119</v>
@@ -5031,33 +5024,33 @@
       <c r="H9" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -5069,167 +5062,185 @@
       <c r="H10" s="7">
         <v>1234</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>126</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>245</v>
+      <c r="I11" s="15" t="s">
+        <v>633</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>129</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>132</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>757</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+      <c r="J13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+      <c r="K14" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="43" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="I15" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="K15" s="44" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5245,482 +5256,515 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0A0B2-B5F3-4A49-A089-B3D37B5BF24D}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13" style="16" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="30" style="16" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="30" style="15" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="15" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="15" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="12"/>
-    <col min="12" max="12" width="12.140625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="11"/>
+    <col min="12" max="12" width="12.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="H5" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F6" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="H6" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="J6" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="H7" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="F12" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>757</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E13" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="F13" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>234</v>
+      <c r="H13" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5733,8 +5777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA327B7F-64E2-4FE3-AD7D-3A0C5D06EFA9}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A2" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5746,313 +5790,313 @@
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="15" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>337</v>
+        <v>656</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>338</v>
+        <v>657</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>349</v>
+        <v>658</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>350</v>
+        <v>659</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>353</v>
+        <v>302</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>354</v>
+        <v>660</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>757</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>769</v>
+        <v>661</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>358</v>
+        <v>306</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>359</v>
+        <v>662</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>360</v>
+        <v>663</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>371</v>
+        <v>315</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>372</v>
+        <v>664</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>373</v>
+        <v>665</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>353</v>
+        <v>310</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>364</v>
+        <v>666</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>364</v>
+        <v>666</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="H8" s="6">
         <v>1234</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>367</v>
+        <v>667</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>367</v>
+        <v>667</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6065,8 +6109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FD55CB-095F-4EA1-B070-8C6158A78662}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6083,332 +6127,332 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>416</v>
+    <row r="2" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>391</v>
+        <v>681</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>417</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>351</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>395</v>
+        <v>668</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>396</v>
+        <v>669</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>418</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>352</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>398</v>
+        <v>341</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>400</v>
+        <v>339</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>401</v>
+        <v>670</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>408</v>
+        <v>671</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>418</v>
+      <c r="L4" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>352</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>398</v>
+        <v>342</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>405</v>
+        <v>343</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>406</v>
+        <v>672</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>407</v>
+        <v>673</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>419</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>353</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>398</v>
+        <v>345</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>410</v>
+        <v>674</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>410</v>
+        <v>674</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>420</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>412</v>
+        <v>346</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>415</v>
+        <v>675</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>757</v>
+        <v>676</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>617</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>762</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>421</v>
+        <v>317</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>355</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>423</v>
+        <v>356</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>425</v>
+        <v>677</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>426</v>
+        <v>678</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>417</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>429</v>
+        <v>360</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>361</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>431</v>
+        <v>679</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>432</v>
+        <v>680</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6421,8 +6465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368E44A-C1B5-4830-AE18-E72BE3842A2B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,375 +6483,375 @@
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>436</v>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>273</v>
+        <v>375</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>446</v>
+        <v>376</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>448</v>
+        <v>687</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>450</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>379</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>451</v>
+        <v>412</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>452</v>
+        <v>381</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>453</v>
+        <v>682</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>456</v>
+        <v>683</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>383</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>457</v>
+        <v>411</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>458</v>
+        <v>385</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>459</v>
+        <v>684</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>234</v>
+        <v>685</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>456</v>
+        <v>364</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>383</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>457</v>
+        <v>410</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>462</v>
+        <v>386</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>463</v>
+        <v>686</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="K5" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>466</v>
+        <v>364</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>467</v>
+        <v>409</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>469</v>
+        <v>391</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>392</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>470</v>
+        <v>689</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>470</v>
+        <v>689</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>472</v>
+        <v>364</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>467</v>
+        <v>408</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>474</v>
+        <v>395</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>396</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>475</v>
+        <v>690</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="K7" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>472</v>
+        <v>364</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>467</v>
+        <v>397</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>469</v>
+        <v>398</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>392</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>479</v>
+        <v>692</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="K8" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>482</v>
+        <v>364</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>400</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>483</v>
+        <v>407</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>401</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>485</v>
+        <v>402</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>486</v>
+        <v>694</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K9" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>489</v>
+        <v>364</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>483</v>
+        <v>406</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>401</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>498</v>
+        <v>413</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>414</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>499</v>
+        <v>696</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="K10" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6820,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510B7E1-8952-42B9-B5A8-7CA1E56285FB}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6834,385 +6878,385 @@
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="15" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>512</v>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>426</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>523</v>
+        <v>435</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>519</v>
+        <v>433</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>520</v>
+        <v>436</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>434</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>521</v>
+        <v>698</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>513</v>
+        <v>699</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>525</v>
+        <v>437</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>519</v>
+        <v>433</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>528</v>
+        <v>439</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>440</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>529</v>
+        <v>700</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>513</v>
+        <v>701</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>534</v>
+        <v>443</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>535</v>
+        <v>702</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>514</v>
+        <v>703</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>428</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>548</v>
+        <v>452</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>539</v>
+        <v>446</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>447</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>540</v>
+        <v>704</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>234</v>
+        <v>705</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>514</v>
+        <v>424</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>428</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>542</v>
+        <v>448</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>545</v>
+        <v>449</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>706</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>515</v>
+        <v>707</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>429</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>547</v>
+        <v>451</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>552</v>
+        <v>454</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>708</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>516</v>
+        <v>709</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>430</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>554</v>
+        <v>456</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>557</v>
+        <v>458</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>459</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>558</v>
+        <v>710</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>517</v>
+        <v>710</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>431</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>559</v>
+        <v>460</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>561</v>
+        <v>462</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>564</v>
+        <v>463</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>562</v>
+        <v>711</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>234</v>
+        <v>712</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>518</v>
+        <v>424</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>432</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>568</v>
+        <v>466</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>467</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>569</v>
+        <v>713</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>234</v>
+        <v>713</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7228,46 +7272,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983707B-2900-4232-B9A4-6CEF831CF204}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="5" max="5" width="31.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="13"/>
     <col min="12" max="12" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -7286,270 +7330,270 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>580</v>
+    <row r="2" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>478</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>588</v>
+        <v>480</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>484</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>591</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>593</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>603</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>601</v>
+        <v>490</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>493</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="H5" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>605</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>624</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>234</v>
+      <c r="H8" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -3753,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBB9E62-98BC-4EF8-AD74-BDAD31C3DFDF}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
